--- a/biology/Botanique/Ribston/Ribston.xlsx
+++ b/biology/Botanique/Ribston/Ribston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ribston est un ancien cultivar de pommier domestique.
 Synonymes: Ribston Pippin, Ribston Pepping.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Semis chanceux, Angleterre
 </t>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pomme d'hiver.
 Peau: Jaune à rayures orangées
-Vitamine C: très forte teneur (30,6 mg/100 g [1]).</t>
+Vitamine C: très forte teneur (30,6 mg/100 g ).</t>
         </is>
       </c>
     </row>
@@ -575,7 +591,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Descendants:
 Reinette Dorée Freiherr von Berlepsch.
@@ -607,10 +625,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété triploïde (ne participe pas à la pollinisation croisée).
-Groupe de floraison: B[2] (mi-précoce).
+Groupe de floraison: B (mi-précoce).
 Fécondation par: Reine des Reinettes.</t>
         </is>
       </c>
@@ -639,11 +659,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Type de fructification: Spur[3] (facilite la taille par le non spécialiste).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Type de fructification: Spur (facilite la taille par le non spécialiste).
 Maturité: deuxième quinzaine d'octobre.
-Consommation: de décembre à mars [4].</t>
+Consommation: de décembre à mars .</t>
         </is>
       </c>
     </row>
